--- a/excel/linkswa.xlsx
+++ b/excel/linkswa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankur.chadha\Desktop\GrizzlyProject\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankur.chadha\Desktop\GrizzlyClone\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CDB401-167B-4DA3-9F4C-0DB17FD08F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E856DE7-3E77-436E-900F-7F8932AC9B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26352801-F219-4743-9F3B-69F167A91C63}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26352801-F219-4743-9F3B-69F167A91C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,18 +292,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -325,11 +319,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -345,12 +338,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -669,16 +664,16 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="82.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="82.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -712,16 +707,16 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,14 +726,14 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -748,16 +743,16 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -767,92 +762,92 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="2"/>
@@ -864,16 +859,16 @@
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,54 +878,54 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="2" t="s">
         <v>68</v>
       </c>
@@ -942,34 +937,34 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="2"/>
     </row>
   </sheetData>
